--- a/Part BProcess 31850 165Datasample scatter.xlsx
+++ b/Part BProcess 31850 165Datasample scatter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CS BU\CS 550 OS\Assignment 3 Part B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josep\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\root\cs550\assignment3DONOTRUNLOCALLY\CS550Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804F622-62F8-407E-A6E6-BB2C80525305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AACA74-9751-4D6C-935B-2D634EB4B3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B89214E0-7B85-4F57-BEAA-C14111EC24F2}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="317">
   <si>
     <t>from</t>
   </si>
@@ -999,6 +999,9 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>sysbench --test=CPU --cpu-max-prime=200000sysbench --test=cpu --cpu-max-prime=20000 run &amp;</t>
   </si>
 </sst>
 </file>
@@ -1069,6 +1072,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>165 Data points from sysbench</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3173,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713CA4-2AEE-45EB-A34A-681CC9DF759E}">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H157" sqref="H2:I157"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,20 +3223,23 @@
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>314</v>
       </c>
       <c r="I1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f>RIGHT(A2, LEN(A2)-1)</f>
+        <f t="shared" ref="B2:B33" si="0">RIGHT(A2, LEN(A2)-1)</f>
         <v>104463.314594</v>
       </c>
       <c r="C2" s="1">
@@ -3230,12 +3261,12 @@
         <v>140441950212096</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <f>RIGHT(A3, LEN(A3)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.314605</v>
       </c>
       <c r="C3" s="1">
@@ -3257,12 +3288,12 @@
         <v>140441950195712</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="str">
-        <f>RIGHT(A4, LEN(A4)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.314909</v>
       </c>
       <c r="C4" s="1">
@@ -3284,12 +3315,12 @@
         <v>140441950199808</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="str">
-        <f>RIGHT(A5, LEN(A5)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.315112</v>
       </c>
       <c r="C5" s="1">
@@ -3311,12 +3342,12 @@
         <v>140441950220288</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="str">
-        <f>RIGHT(A6, LEN(A6)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.315313</v>
       </c>
       <c r="C6" s="1">
@@ -3338,12 +3369,12 @@
         <v>140441950228480</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="str">
-        <f>RIGHT(A7, LEN(A7)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.315622</v>
       </c>
       <c r="C7" s="1">
@@ -3365,12 +3396,12 @@
         <v>140441950236672</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="str">
-        <f>RIGHT(A8, LEN(A8)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.315823</v>
       </c>
       <c r="C8" s="1">
@@ -3392,12 +3423,12 @@
         <v>140441950244864</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="str">
-        <f>RIGHT(A9, LEN(A9)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.316100</v>
       </c>
       <c r="C9" s="1">
@@ -3419,12 +3450,12 @@
         <v>140441950253056</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="str">
-        <f>RIGHT(A10, LEN(A10)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.316360</v>
       </c>
       <c r="C10" s="1">
@@ -3446,12 +3477,12 @@
         <v>140441950261248</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="str">
-        <f>RIGHT(A11, LEN(A11)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.316559</v>
       </c>
       <c r="C11" s="1">
@@ -3473,12 +3504,12 @@
         <v>140441950269440</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="str">
-        <f>RIGHT(A12, LEN(A12)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.316871</v>
       </c>
       <c r="C12" s="1">
@@ -3500,12 +3531,12 @@
         <v>140441950277632</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="str">
-        <f>RIGHT(A13, LEN(A13)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.317066</v>
       </c>
       <c r="C13" s="1">
@@ -3527,12 +3558,12 @@
         <v>140441950285824</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="str">
-        <f>RIGHT(A14, LEN(A14)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.317258</v>
       </c>
       <c r="C14" s="1">
@@ -3554,12 +3585,12 @@
         <v>140441950294016</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="str">
-        <f>RIGHT(A15, LEN(A15)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.317452</v>
       </c>
       <c r="C15" s="1">
@@ -3581,12 +3612,12 @@
         <v>140441950302208</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="str">
-        <f>RIGHT(A16, LEN(A16)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.317646</v>
       </c>
       <c r="C16" s="1">
@@ -3613,7 +3644,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="str">
-        <f>RIGHT(A17, LEN(A17)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.317837</v>
       </c>
       <c r="C17" s="1">
@@ -3640,7 +3671,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="str">
-        <f>RIGHT(A18, LEN(A18)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.318028</v>
       </c>
       <c r="C18" s="1">
@@ -3667,7 +3698,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="str">
-        <f>RIGHT(A19, LEN(A19)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.318217</v>
       </c>
       <c r="C19" s="1">
@@ -3694,7 +3725,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="str">
-        <f>RIGHT(A20, LEN(A20)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.318518</v>
       </c>
       <c r="C20" s="1">
@@ -3721,7 +3752,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="str">
-        <f>RIGHT(A21, LEN(A21)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.318845</v>
       </c>
       <c r="C21" s="1">
@@ -3748,7 +3779,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="str">
-        <f>RIGHT(A22, LEN(A22)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.319188</v>
       </c>
       <c r="C22" s="1">
@@ -3775,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="str">
-        <f>RIGHT(A23, LEN(A23)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.319379</v>
       </c>
       <c r="C23" s="1">
@@ -3802,7 +3833,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="str">
-        <f>RIGHT(A24, LEN(A24)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.319655</v>
       </c>
       <c r="C24" s="1">
@@ -3829,7 +3860,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="str">
-        <f>RIGHT(A25, LEN(A25)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.319843</v>
       </c>
       <c r="C25" s="1">
@@ -3856,7 +3887,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="str">
-        <f>RIGHT(A26, LEN(A26)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.320062</v>
       </c>
       <c r="C26" s="1">
@@ -3883,7 +3914,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="str">
-        <f>RIGHT(A27, LEN(A27)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.320257</v>
       </c>
       <c r="C27" s="1">
@@ -3910,7 +3941,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="str">
-        <f>RIGHT(A28, LEN(A28)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.320441</v>
       </c>
       <c r="C28" s="1">
@@ -3937,7 +3968,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="str">
-        <f>RIGHT(A29, LEN(A29)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.320624</v>
       </c>
       <c r="C29" s="1">
@@ -3964,7 +3995,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="str">
-        <f>RIGHT(A30, LEN(A30)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.320808</v>
       </c>
       <c r="C30" s="1">
@@ -3991,7 +4022,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="str">
-        <f>RIGHT(A31, LEN(A31)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.320990</v>
       </c>
       <c r="C31" s="1">
@@ -4018,7 +4049,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="str">
-        <f>RIGHT(A32, LEN(A32)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.321170</v>
       </c>
       <c r="C32" s="1">
@@ -4045,7 +4076,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="str">
-        <f>RIGHT(A33, LEN(A33)-1)</f>
+        <f t="shared" si="0"/>
         <v>104463.321351</v>
       </c>
       <c r="C33" s="1">
@@ -4072,7 +4103,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="str">
-        <f>RIGHT(A34, LEN(A34)-1)</f>
+        <f t="shared" ref="B34:B65" si="1">RIGHT(A34, LEN(A34)-1)</f>
         <v>104463.321530</v>
       </c>
       <c r="C34" s="1">
@@ -4099,7 +4130,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="str">
-        <f>RIGHT(A35, LEN(A35)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.321707</v>
       </c>
       <c r="C35" s="1">
@@ -4126,7 +4157,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="str">
-        <f>RIGHT(A36, LEN(A36)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.321884</v>
       </c>
       <c r="C36" s="1">
@@ -4153,7 +4184,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="str">
-        <f>RIGHT(A37, LEN(A37)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.322122</v>
       </c>
       <c r="C37" s="1">
@@ -4180,7 +4211,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="str">
-        <f>RIGHT(A38, LEN(A38)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.322303</v>
       </c>
       <c r="C38" s="1">
@@ -4207,7 +4238,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="str">
-        <f>RIGHT(A39, LEN(A39)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.322458</v>
       </c>
       <c r="C39" s="1">
@@ -4234,7 +4265,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="str">
-        <f>RIGHT(A40, LEN(A40)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.322594</v>
       </c>
       <c r="C40" s="1">
@@ -4261,7 +4292,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="str">
-        <f>RIGHT(A41, LEN(A41)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.322730</v>
       </c>
       <c r="C41" s="1">
@@ -4288,7 +4319,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="str">
-        <f>RIGHT(A42, LEN(A42)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.322866</v>
       </c>
       <c r="C42" s="1">
@@ -4315,7 +4346,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="str">
-        <f>RIGHT(A43, LEN(A43)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.323002</v>
       </c>
       <c r="C43" s="1">
@@ -4342,7 +4373,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="str">
-        <f>RIGHT(A44, LEN(A44)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.323139</v>
       </c>
       <c r="C44" s="1">
@@ -4369,7 +4400,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="str">
-        <f>RIGHT(A45, LEN(A45)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.323276</v>
       </c>
       <c r="C45" s="1">
@@ -4396,7 +4427,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="str">
-        <f>RIGHT(A46, LEN(A46)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.323412</v>
       </c>
       <c r="C46" s="1">
@@ -4423,7 +4454,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="str">
-        <f>RIGHT(A47, LEN(A47)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.323570</v>
       </c>
       <c r="C47" s="1">
@@ -4450,7 +4481,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="str">
-        <f>RIGHT(A48, LEN(A48)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.323707</v>
       </c>
       <c r="C48" s="1">
@@ -4477,7 +4508,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="str">
-        <f>RIGHT(A49, LEN(A49)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.323843</v>
       </c>
       <c r="C49" s="1">
@@ -4504,7 +4535,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="str">
-        <f>RIGHT(A50, LEN(A50)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.323979</v>
       </c>
       <c r="C50" s="1">
@@ -4531,7 +4562,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="str">
-        <f>RIGHT(A51, LEN(A51)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.324115</v>
       </c>
       <c r="C51" s="1">
@@ -4558,7 +4589,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="str">
-        <f>RIGHT(A52, LEN(A52)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.324250</v>
       </c>
       <c r="C52" s="1">
@@ -4585,7 +4616,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="str">
-        <f>RIGHT(A53, LEN(A53)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.324385</v>
       </c>
       <c r="C53" s="1">
@@ -4612,7 +4643,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="str">
-        <f>RIGHT(A54, LEN(A54)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.324522</v>
       </c>
       <c r="C54" s="1">
@@ -4639,7 +4670,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="str">
-        <f>RIGHT(A55, LEN(A55)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.324658</v>
       </c>
       <c r="C55" s="1">
@@ -4666,7 +4697,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="str">
-        <f>RIGHT(A56, LEN(A56)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.324793</v>
       </c>
       <c r="C56" s="1">
@@ -4693,7 +4724,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="str">
-        <f>RIGHT(A57, LEN(A57)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.324929</v>
       </c>
       <c r="C57" s="1">
@@ -4720,7 +4751,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="str">
-        <f>RIGHT(A58, LEN(A58)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.325065</v>
       </c>
       <c r="C58" s="1">
@@ -4747,7 +4778,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="str">
-        <f>RIGHT(A59, LEN(A59)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.325201</v>
       </c>
       <c r="C59" s="1">
@@ -4774,7 +4805,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="str">
-        <f>RIGHT(A60, LEN(A60)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.325336</v>
       </c>
       <c r="C60" s="1">
@@ -4801,7 +4832,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="str">
-        <f>RIGHT(A61, LEN(A61)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.325471</v>
       </c>
       <c r="C61" s="1">
@@ -4828,7 +4859,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="str">
-        <f>RIGHT(A62, LEN(A62)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.325613</v>
       </c>
       <c r="C62" s="1">
@@ -4855,7 +4886,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="str">
-        <f>RIGHT(A63, LEN(A63)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.325750</v>
       </c>
       <c r="C63" s="1">
@@ -4882,7 +4913,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="str">
-        <f>RIGHT(A64, LEN(A64)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.325885</v>
       </c>
       <c r="C64" s="1">
@@ -4909,7 +4940,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="str">
-        <f>RIGHT(A65, LEN(A65)-1)</f>
+        <f t="shared" si="1"/>
         <v>104463.326019</v>
       </c>
       <c r="C65" s="1">
@@ -4936,7 +4967,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="str">
-        <f>RIGHT(A66, LEN(A66)-1)</f>
+        <f t="shared" ref="B66:B97" si="2">RIGHT(A66, LEN(A66)-1)</f>
         <v>104463.326154</v>
       </c>
       <c r="C66" s="1">
@@ -4963,7 +4994,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="str">
-        <f>RIGHT(A67, LEN(A67)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.326289</v>
       </c>
       <c r="C67" s="1">
@@ -4990,7 +5021,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="str">
-        <f>RIGHT(A68, LEN(A68)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.326425</v>
       </c>
       <c r="C68" s="1">
@@ -5017,7 +5048,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="str">
-        <f>RIGHT(A69, LEN(A69)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.326561</v>
       </c>
       <c r="C69" s="1">
@@ -5044,7 +5075,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="str">
-        <f>RIGHT(A70, LEN(A70)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.326705</v>
       </c>
       <c r="C70" s="1">
@@ -5071,7 +5102,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="str">
-        <f>RIGHT(A71, LEN(A71)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.326840</v>
       </c>
       <c r="C71" s="1">
@@ -5098,7 +5129,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="str">
-        <f>RIGHT(A72, LEN(A72)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.326977</v>
       </c>
       <c r="C72" s="1">
@@ -5125,7 +5156,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="str">
-        <f>RIGHT(A73, LEN(A73)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.327113</v>
       </c>
       <c r="C73" s="1">
@@ -5152,7 +5183,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="str">
-        <f>RIGHT(A74, LEN(A74)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.327247</v>
       </c>
       <c r="C74" s="1">
@@ -5179,7 +5210,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="str">
-        <f>RIGHT(A75, LEN(A75)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.327383</v>
       </c>
       <c r="C75" s="1">
@@ -5206,7 +5237,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="str">
-        <f>RIGHT(A76, LEN(A76)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.327534</v>
       </c>
       <c r="C76" s="1">
@@ -5233,7 +5264,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="str">
-        <f>RIGHT(A77, LEN(A77)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.327671</v>
       </c>
       <c r="C77" s="1">
@@ -5260,7 +5291,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="str">
-        <f>RIGHT(A78, LEN(A78)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.327807</v>
       </c>
       <c r="C78" s="1">
@@ -5287,7 +5318,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="str">
-        <f>RIGHT(A79, LEN(A79)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.327942</v>
       </c>
       <c r="C79" s="1">
@@ -5314,7 +5345,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="str">
-        <f>RIGHT(A80, LEN(A80)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.328250</v>
       </c>
       <c r="C80" s="1">
@@ -5341,7 +5372,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="str">
-        <f>RIGHT(A81, LEN(A81)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.328388</v>
       </c>
       <c r="C81" s="1">
@@ -5368,7 +5399,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="str">
-        <f>RIGHT(A82, LEN(A82)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.328523</v>
       </c>
       <c r="C82" s="1">
@@ -5395,7 +5426,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="str">
-        <f>RIGHT(A83, LEN(A83)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.328659</v>
       </c>
       <c r="C83" s="1">
@@ -5422,7 +5453,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="str">
-        <f>RIGHT(A84, LEN(A84)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.328795</v>
       </c>
       <c r="C84" s="1">
@@ -5449,7 +5480,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="str">
-        <f>RIGHT(A85, LEN(A85)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.328930</v>
       </c>
       <c r="C85" s="1">
@@ -5476,7 +5507,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="str">
-        <f>RIGHT(A86, LEN(A86)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.329066</v>
       </c>
       <c r="C86" s="1">
@@ -5503,7 +5534,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="str">
-        <f>RIGHT(A87, LEN(A87)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.329202</v>
       </c>
       <c r="C87" s="1">
@@ -5530,7 +5561,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="str">
-        <f>RIGHT(A88, LEN(A88)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.329337</v>
       </c>
       <c r="C88" s="1">
@@ -5557,7 +5588,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="str">
-        <f>RIGHT(A89, LEN(A89)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.329472</v>
       </c>
       <c r="C89" s="1">
@@ -5584,7 +5615,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="str">
-        <f>RIGHT(A90, LEN(A90)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.329608</v>
       </c>
       <c r="C90" s="1">
@@ -5611,7 +5642,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="str">
-        <f>RIGHT(A91, LEN(A91)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.329743</v>
       </c>
       <c r="C91" s="1">
@@ -5638,7 +5669,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="str">
-        <f>RIGHT(A92, LEN(A92)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.329878</v>
       </c>
       <c r="C92" s="1">
@@ -5665,7 +5696,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="str">
-        <f>RIGHT(A93, LEN(A93)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.330059</v>
       </c>
       <c r="C93" s="1">
@@ -5692,7 +5723,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="str">
-        <f>RIGHT(A94, LEN(A94)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.330197</v>
       </c>
       <c r="C94" s="1">
@@ -5719,7 +5750,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="str">
-        <f>RIGHT(A95, LEN(A95)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.330375</v>
       </c>
       <c r="C95" s="1">
@@ -5746,7 +5777,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="str">
-        <f>RIGHT(A96, LEN(A96)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.330513</v>
       </c>
       <c r="C96" s="1">
@@ -5773,7 +5804,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="str">
-        <f>RIGHT(A97, LEN(A97)-1)</f>
+        <f t="shared" si="2"/>
         <v>104463.330648</v>
       </c>
       <c r="C97" s="1">
@@ -5800,7 +5831,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="str">
-        <f>RIGHT(A98, LEN(A98)-1)</f>
+        <f t="shared" ref="B98:B129" si="3">RIGHT(A98, LEN(A98)-1)</f>
         <v>104463.330784</v>
       </c>
       <c r="C98" s="1">
@@ -5827,7 +5858,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="str">
-        <f>RIGHT(A99, LEN(A99)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.330921</v>
       </c>
       <c r="C99" s="1">
@@ -5854,7 +5885,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="str">
-        <f>RIGHT(A100, LEN(A100)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.331057</v>
       </c>
       <c r="C100" s="1">
@@ -5881,7 +5912,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="str">
-        <f>RIGHT(A101, LEN(A101)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.331192</v>
       </c>
       <c r="C101" s="1">
@@ -5908,7 +5939,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="str">
-        <f>RIGHT(A102, LEN(A102)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.331352</v>
       </c>
       <c r="C102" s="1">
@@ -5935,7 +5966,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="str">
-        <f>RIGHT(A103, LEN(A103)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.331503</v>
       </c>
       <c r="C103" s="1">
@@ -5962,7 +5993,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="str">
-        <f>RIGHT(A104, LEN(A104)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.331639</v>
       </c>
       <c r="C104" s="1">
@@ -5989,7 +6020,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="str">
-        <f>RIGHT(A105, LEN(A105)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.331783</v>
       </c>
       <c r="C105" s="1">
@@ -6016,7 +6047,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="str">
-        <f>RIGHT(A106, LEN(A106)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.331919</v>
       </c>
       <c r="C106" s="1">
@@ -6043,7 +6074,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="str">
-        <f>RIGHT(A107, LEN(A107)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.332055</v>
       </c>
       <c r="C107" s="1">
@@ -6070,7 +6101,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="str">
-        <f>RIGHT(A108, LEN(A108)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.332190</v>
       </c>
       <c r="C108" s="1">
@@ -6097,7 +6128,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="str">
-        <f>RIGHT(A109, LEN(A109)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.332326</v>
       </c>
       <c r="C109" s="1">
@@ -6124,7 +6155,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="str">
-        <f>RIGHT(A110, LEN(A110)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.332462</v>
       </c>
       <c r="C110" s="1">
@@ -6151,7 +6182,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="str">
-        <f>RIGHT(A111, LEN(A111)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.332598</v>
       </c>
       <c r="C111" s="1">
@@ -6178,7 +6209,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="str">
-        <f>RIGHT(A112, LEN(A112)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.332734</v>
       </c>
       <c r="C112" s="1">
@@ -6205,7 +6236,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="str">
-        <f>RIGHT(A113, LEN(A113)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.332870</v>
       </c>
       <c r="C113" s="1">
@@ -6232,7 +6263,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="str">
-        <f>RIGHT(A114, LEN(A114)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.333066</v>
       </c>
       <c r="C114" s="1">
@@ -6259,7 +6290,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="str">
-        <f>RIGHT(A115, LEN(A115)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.333208</v>
       </c>
       <c r="C115" s="1">
@@ -6286,7 +6317,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="str">
-        <f>RIGHT(A116, LEN(A116)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.333344</v>
       </c>
       <c r="C116" s="1">
@@ -6313,7 +6344,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="str">
-        <f>RIGHT(A117, LEN(A117)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.333479</v>
       </c>
       <c r="C117" s="1">
@@ -6340,7 +6371,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="str">
-        <f>RIGHT(A118, LEN(A118)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.333615</v>
       </c>
       <c r="C118" s="1">
@@ -6367,7 +6398,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="str">
-        <f>RIGHT(A119, LEN(A119)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.333750</v>
       </c>
       <c r="C119" s="1">
@@ -6394,7 +6425,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="str">
-        <f>RIGHT(A120, LEN(A120)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.333885</v>
       </c>
       <c r="C120" s="1">
@@ -6421,7 +6452,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="str">
-        <f>RIGHT(A121, LEN(A121)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.334021</v>
       </c>
       <c r="C121" s="1">
@@ -6448,7 +6479,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="str">
-        <f>RIGHT(A122, LEN(A122)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.334156</v>
       </c>
       <c r="C122" s="1">
@@ -6475,7 +6506,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="str">
-        <f>RIGHT(A123, LEN(A123)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.334291</v>
       </c>
       <c r="C123" s="1">
@@ -6502,7 +6533,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="str">
-        <f>RIGHT(A124, LEN(A124)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.334426</v>
       </c>
       <c r="C124" s="1">
@@ -6529,7 +6560,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="str">
-        <f>RIGHT(A125, LEN(A125)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.334561</v>
       </c>
       <c r="C125" s="1">
@@ -6556,7 +6587,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="str">
-        <f>RIGHT(A126, LEN(A126)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.334696</v>
       </c>
       <c r="C126" s="1">
@@ -6583,7 +6614,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="str">
-        <f>RIGHT(A127, LEN(A127)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.334837</v>
       </c>
       <c r="C127" s="1">
@@ -6610,7 +6641,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="str">
-        <f>RIGHT(A128, LEN(A128)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.334972</v>
       </c>
       <c r="C128" s="1">
@@ -6637,7 +6668,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="str">
-        <f>RIGHT(A129, LEN(A129)-1)</f>
+        <f t="shared" si="3"/>
         <v>104463.335107</v>
       </c>
       <c r="C129" s="1">
@@ -6664,7 +6695,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="str">
-        <f>RIGHT(A130, LEN(A130)-1)</f>
+        <f t="shared" ref="B130:B161" si="4">RIGHT(A130, LEN(A130)-1)</f>
         <v>104463.335242</v>
       </c>
       <c r="C130" s="1">
@@ -6691,7 +6722,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="str">
-        <f>RIGHT(A131, LEN(A131)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.335377</v>
       </c>
       <c r="C131" s="1">
@@ -6718,7 +6749,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="str">
-        <f>RIGHT(A132, LEN(A132)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.335522</v>
       </c>
       <c r="C132" s="1">
@@ -6745,7 +6776,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="str">
-        <f>RIGHT(A133, LEN(A133)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.335654</v>
       </c>
       <c r="C133" s="1">
@@ -6772,7 +6803,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="str">
-        <f>RIGHT(A134, LEN(A134)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.336451</v>
       </c>
       <c r="C134" s="1">
@@ -6799,7 +6830,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="str">
-        <f>RIGHT(A135, LEN(A135)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.338274</v>
       </c>
       <c r="C135" s="1">
@@ -6826,7 +6857,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="str">
-        <f>RIGHT(A136, LEN(A136)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.338442</v>
       </c>
       <c r="C136" s="1">
@@ -6853,7 +6884,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="str">
-        <f>RIGHT(A137, LEN(A137)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.338574</v>
       </c>
       <c r="C137" s="1">
@@ -6880,7 +6911,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="str">
-        <f>RIGHT(A138, LEN(A138)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.338700</v>
       </c>
       <c r="C138" s="1">
@@ -6907,7 +6938,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="str">
-        <f>RIGHT(A139, LEN(A139)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.338841</v>
       </c>
       <c r="C139" s="1">
@@ -6934,7 +6965,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="str">
-        <f>RIGHT(A140, LEN(A140)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.338968</v>
       </c>
       <c r="C140" s="1">
@@ -6961,7 +6992,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="str">
-        <f>RIGHT(A141, LEN(A141)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.339091</v>
       </c>
       <c r="C141" s="1">
@@ -6988,7 +7019,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="str">
-        <f>RIGHT(A142, LEN(A142)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.339223</v>
       </c>
       <c r="C142" s="1">
@@ -7015,7 +7046,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="str">
-        <f>RIGHT(A143, LEN(A143)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.339566</v>
       </c>
       <c r="C143" s="1">
@@ -7042,7 +7073,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="str">
-        <f>RIGHT(A144, LEN(A144)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.339698</v>
       </c>
       <c r="C144" s="1">
@@ -7069,7 +7100,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="str">
-        <f>RIGHT(A145, LEN(A145)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.339866</v>
       </c>
       <c r="C145" s="1">
@@ -7096,7 +7127,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="str">
-        <f>RIGHT(A146, LEN(A146)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.340044</v>
       </c>
       <c r="C146" s="1">
@@ -7123,7 +7154,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="str">
-        <f>RIGHT(A147, LEN(A147)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.340286</v>
       </c>
       <c r="C147" s="1">
@@ -7150,7 +7181,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="str">
-        <f>RIGHT(A148, LEN(A148)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.340449</v>
       </c>
       <c r="C148" s="1">
@@ -7177,7 +7208,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="str">
-        <f>RIGHT(A149, LEN(A149)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.340595</v>
       </c>
       <c r="C149" s="1">
@@ -7204,7 +7235,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="str">
-        <f>RIGHT(A150, LEN(A150)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.340730</v>
       </c>
       <c r="C150" s="1">
@@ -7231,7 +7262,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="str">
-        <f>RIGHT(A151, LEN(A151)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.340864</v>
       </c>
       <c r="C151" s="1">
@@ -7258,7 +7289,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="str">
-        <f>RIGHT(A152, LEN(A152)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.341201</v>
       </c>
       <c r="C152" s="1">
@@ -7285,7 +7316,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="str">
-        <f>RIGHT(A153, LEN(A153)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.341347</v>
       </c>
       <c r="C153" s="1">
@@ -7312,7 +7343,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="str">
-        <f>RIGHT(A154, LEN(A154)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.341494</v>
       </c>
       <c r="C154" s="1">
@@ -7339,7 +7370,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="str">
-        <f>RIGHT(A155, LEN(A155)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.341638</v>
       </c>
       <c r="C155" s="1">
@@ -7366,7 +7397,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="str">
-        <f>RIGHT(A156, LEN(A156)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.341849</v>
       </c>
       <c r="C156" s="1">
@@ -7393,7 +7424,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="str">
-        <f>RIGHT(A157, LEN(A157)-1)</f>
+        <f t="shared" si="4"/>
         <v>104463.341989</v>
       </c>
       <c r="C157" s="1">
